--- a/experiment result/128_0.9_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.9_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008503602382673593</v>
+        <v>0.006226584145443909</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01242997028771539</v>
+        <v>0.01050673777105319</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.023418819069509</v>
+        <v>0.01056969337858867</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01651481102204432</v>
+        <v>0.01043078637013702</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01114051827479006</v>
+        <v>0.001494704492860807</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01173814796292663</v>
+        <v>0.001681265492322861</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01378033679206703</v>
+        <v>0.02014632252703553</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01120690757202198</v>
+        <v>0.01078765630357877</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01172806094677909</v>
+        <v>0.005313635658865711</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01434158537049643</v>
+        <v>0.02314398716200521</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01754439957412257</v>
+        <v>0.004736874202945285</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02360594671029314</v>
+        <v>0.005487685169113783</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.008407284969170472</v>
+        <v>0.00212160193517966</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01243458205246878</v>
+        <v>0.003318115262094264</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01623778296942734</v>
+        <v>0.002775114838691233</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01327897840769263</v>
+        <v>0.004381627937624004</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01864562219859356</v>
+        <v>0.01100466621559825</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003745940476072941</v>
+        <v>0.001382194062777697</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01839172057961948</v>
+        <v>0.005440169547492902</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01424026036692505</v>
+        <v>0.007912866775325284</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008922812123945604</v>
+        <v>0.001727784403195272</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01160547605791541</v>
+        <v>0.002156487387986432</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0172058952801872</v>
+        <v>0.003310616164602689</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.005973295017913678</v>
+        <v>0.001062746882823633</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003360322707846471</v>
+        <v>0.000409978899204621</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02532447020050739</v>
+        <v>0.003965538800620804</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.009989437017251456</v>
+        <v>0.0007214872245992609</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01669916449755163</v>
+        <v>0.005930613647707307</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0195654840314001</v>
+        <v>0.002197648701605556</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01514825662009535</v>
+        <v>0.004567519767807789</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004324361671896735</v>
+        <v>0.0009931306479135792</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007173078915428521</v>
+        <v>0.004790785437031752</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01618746804590992</v>
+        <v>0.003862013571884763</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.009290603750753837</v>
+        <v>0.003612922590027756</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01453581513689787</v>
+        <v>0.007185883538369039</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01281334244117004</v>
+        <v>0.00394951002542371</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01193251930115</v>
+        <v>0.002544840818131051</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01516007941854752</v>
+        <v>0.006346502299312622</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01895656663031336</v>
+        <v>0.00560860139714158</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.008823159391241777</v>
+        <v>0.00208284702291372</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0163536588484972</v>
+        <v>0.002760605986579537</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.009477590146873532</v>
+        <v>0.001687312644587999</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00803056738812522</v>
+        <v>0.004486615257357866</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01497093232064856</v>
+        <v>0.005458556898422872</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01565833892239979</v>
+        <v>0.002369578041746215</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0196614611665344</v>
+        <v>0.006280768063050855</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02183840053340417</v>
+        <v>0.01680667656942778</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.009103778365402307</v>
+        <v>0.00676135352674917</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.015234003892767</v>
+        <v>0.001546820241712293</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004824818703968871</v>
+        <v>0.002348896939067386</v>
       </c>
     </row>
   </sheetData>
